--- a/pred_ohlcv/54_21/2019-10-25 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 DVP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4213485.519051594</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4213485.519051594</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-4213441.074651593</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4213529.963451593</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4227826.599551593</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4227826.599551593</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4227844.599551593</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4227794.377351593</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4236695.072551594</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-4234640.932451594</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-4234658.932451594</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4234718.932451594</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4242631.587751593</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-4241011.587751593</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4241031.587751593</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4926447.317651593</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-4926403.317651593</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-4926403.317651593</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-4684693.228251593</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-4684737.228251593</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-4688473.450451593</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-4688473.450451593</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4692183.653051593</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-4692183.653051593</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-4692161.430851594</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-4551848.714051594</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-4547237.354251594</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-4875021.965151594</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-4877165.166151594</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-4877143.166151594</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-4875721.166151594</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-4824000.920251594</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4824000.920251594</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4824611.920251594</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4824611.920251594</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4867765.567451593</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-4867755.567451593</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-4867765.567451593</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-4912218.204851594</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-4912118.204851594</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-4912118.204851594</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4974955.046351594</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-4971457.046351594</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-4971457.046351594</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-4971457.046351594</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-4965438.046351594</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-5171702.896551594</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-5171702.896551594</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-5284318.685351594</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5016103.428051594</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-5016103.428051594</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5016103.428051594</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-5016103.428051594</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-4833834.379151594</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-5020338.700851594</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3976898.392651594</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3439142.505557753</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3583687.015657753</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4037441.565157753</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4546843.709757754</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4354825.043905373</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4354732.043705373</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4354772.043805373</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4554792.043805373</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-4554822.043905373</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4452241.825805373</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4452281.826005372</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4715590.514805372</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4715590.514805372</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4715620.514905372</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4715590.514905372</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4715600.515005372</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-4216456.156805371</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-4209734.614005371</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-4209734.614005371</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3872431.943605371</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-3395991.863005371</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3405132.443605371</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-3419233.516105371</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2312225.682405371</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-394429.5754053706</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-148497.4589053706</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-692567.2040053705</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1148240.70490537</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-685882.8487053704</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-731145.1977053705</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-792832.1147053705</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-644566.3803053705</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1142739.897794629</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1036808.011894629</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1726264.75159463</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>2893034.38559463</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>2561374.18279463</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>2561251.54219463</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1220042.32189463</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1584267.06309463</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1849044.53989463</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>2509455.45069463</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>825014.7144634575</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>726100.1503634575</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1095042.785463457</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>603703.4810634574</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>281958.3202634574</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>27428.32026345743</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>283900.7354634574</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>283900.7354634574</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>184933.7818634574</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>251914.7008634574</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>251710.9101634574</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-136561.8511365426</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>3665523.545747771</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>6411849.169000648</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>2850034.134300648</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>2850034.134300648</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>1907770.349100648</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>2517665.655600647</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>2517665.655600647</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>2339725.528200647</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>2489175.003900647</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>2489175.003900647</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>2042714.137200647</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>1895984.032864502</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>2017042.837564502</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-25 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 DVP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4213485.519051594</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4213485.519051594</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-4213441.074651593</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4213529.963451593</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4213574.407851594</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-4213484.458551593</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-4228466.530051593</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4227826.599551593</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4227826.599551593</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4227844.599551593</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4227794.377351593</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4227794.377351593</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4228903.781351593</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4685006.228251593</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4687256.228251593</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-4687256.228251593</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-4687278.450451593</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4688564.450451593</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-4688473.450451593</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-4692183.653051593</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-4547265.354251594</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4540199.354251594</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4543199.354251594</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4543159.873451594</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-4786071.298551594</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-4804701.298551594</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3439142.505557753</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3583687.015657753</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4037441.565157753</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4546843.709757754</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4354825.043905373</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4354732.043705373</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4354772.043805373</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4554792.043805373</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-4554822.043905373</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4452241.825805373</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4452281.826005372</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4715590.514805372</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4715590.514805372</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4715620.514905372</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4715590.514905372</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4715600.515005372</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-4216456.156805371</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-4209734.614005371</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-4209734.614005371</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3872431.943605371</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-3395991.863005371</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-3428232.443605371</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3405132.443605371</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-3419233.516105371</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3439639.022005371</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2312225.682405371</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-394429.5754053706</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-395710.1343053706</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-148497.4589053706</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-692567.2040053705</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1148240.70490537</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-685882.8487053704</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-731145.1977053705</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-792832.1147053705</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-644566.3803053705</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1142739.897794629</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1036808.011894629</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1726264.75159463</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>2893034.38559463</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>2561374.18279463</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>2561251.54219463</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1220042.32189463</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1584267.06309463</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1849044.53989463</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>2509455.45069463</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>825014.7144634575</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>726100.1503634575</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1095042.785463457</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>603703.4810634574</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>281958.3202634574</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>27428.32026345743</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>283900.7354634574</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>283900.7354634574</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>184933.7818634574</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>251914.7008634574</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>251710.9101634574</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-136561.8511365426</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>5224130.571047771</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>6120814.524947771</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>5001621.055047771</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>6182387.364347771</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>3973652.723047771</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>3665523.545747771</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>4019211.509871236</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>4019211.509871236</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4019211.509871236</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4129966.246871236</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>6411849.169000648</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>2850034.134300648</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>2850034.134300648</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>1907770.349100648</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>2517665.655600647</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>2339725.528200647</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>2489175.003900647</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>2042714.137200647</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>1895984.032864502</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>2017042.837564502</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>1483414.592964503</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>1359779.788264503</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
